--- a/信息汇总.xlsx
+++ b/信息汇总.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,122 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>杀毒软件检测出恶意软件的次数</t>
+          <t>杀毒软件检测不安全行为的次数</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>注册表项风险等级为1的项目个数</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>注册表项风险等级为2的项目个数</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>注册表项风险等级为3的项目个数</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>注册表项风险等级为4的项目个数</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>注册表项风险等级为5的项目个数</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>注册表项风险等级为6的项目个数</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>注册表项风险等级为7的项目个数</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>注册表项风险等级为8的项目个数</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>注册表项风险等级为9的项目个数</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>密码长度</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>密码中字母个数</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>密码中数字个数</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>密码中字符个数</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>密码复杂程度</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>驱动项风险等级为1的项目个数</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>驱动项风险等级为2的项目个数</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>驱动项风险等级为3的项目个数</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>驱动项风险等级为4的项目个数</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>驱动项风险等级为5的项目个数</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>驱动项风险等级为6的项目个数</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>驱动项风险等级为7的项目个数</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>驱动项风险等级为8的项目个数</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>驱动项风险等级为9的项目个数</t>
         </is>
       </c>
     </row>
@@ -621,12 +736,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22621.2283</t>
+          <t>22621.2428</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2283</t>
+          <t>2428</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -674,12 +789,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -692,46 +807,46 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>70.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>73.7</v>
+        <v>54.3</v>
       </c>
       <c r="V2" t="n">
-        <v>586752</v>
+        <v>642508.8</v>
       </c>
       <c r="W2" t="n">
-        <v>3328</v>
+        <v>6144</v>
       </c>
       <c r="X2" t="n">
-        <v>979010367488</v>
+        <v>994405531648</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5216841832689021</v>
+        <v>0.5141625565696936</v>
       </c>
       <c r="Z2" t="n">
-        <v>790208</v>
+        <v>1184.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>26077.4</v>
+        <v>2953.1</v>
       </c>
       <c r="AB2" t="n">
         <v>4294967296</v>
       </c>
       <c r="AC2" t="n">
-        <v>701378560</v>
+        <v>609906688</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.203</v>
+        <v>3.854</v>
       </c>
       <c r="AE2" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -742,21 +857,90 @@
         </is>
       </c>
       <c r="AH2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>5.0.74.1</t>
+        </is>
+      </c>
+      <c r="AK2" t="n">
+        <v>1697450227</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1378</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>154</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>267</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>5.0.74.1</t>
-        </is>
-      </c>
-      <c r="AK2" t="n">
-        <v>1696845454</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AV2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY2" t="n">
         <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>428</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/信息汇总.xlsx
+++ b/信息汇总.xlsx
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -816,37 +816,37 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>54.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>642508.8</v>
+        <v>198348.8</v>
       </c>
       <c r="W2" t="n">
-        <v>6144</v>
+        <v>2867.2</v>
       </c>
       <c r="X2" t="n">
-        <v>994405531648</v>
+        <v>997927587840</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5141625565696936</v>
+        <v>0.5124417829803679</v>
       </c>
       <c r="Z2" t="n">
-        <v>1184.6</v>
+        <v>2256.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>2953.1</v>
+        <v>2638.9</v>
       </c>
       <c r="AB2" t="n">
         <v>4294967296</v>
       </c>
       <c r="AC2" t="n">
-        <v>609906688</v>
+        <v>631087104</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.854</v>
+        <v>6.925</v>
       </c>
       <c r="AE2" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="AK2" t="n">
-        <v>1697450227</v>
+        <v>1697537118</v>
       </c>
       <c r="AL2" t="n">
         <v>3</v>
